--- a/src/test/resources/testResources/DataDrivenTestingTest.xlsx
+++ b/src/test/resources/testResources/DataDrivenTestingTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="207">
   <si>
     <t>JustDial_HomePageTest_TC0001</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJ MAHAL </t>
+  </si>
+  <si>
+    <t>Tourist Attraction</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>140</v>
@@ -1768,16 +1774,22 @@
       <c r="D67" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="E67" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>141</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/testResources/DataDrivenTestingTest.xlsx
+++ b/src/test/resources/testResources/DataDrivenTestingTest.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="235">
   <si>
     <t>JustDial_HomePageTest_TC0001</t>
   </si>
@@ -800,6 +801,90 @@
   <si>
     <t>Tourist Attraction</t>
   </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>SelectOption:Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>Search:Taj Mahal ba</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>VerifyAlsoListedIn:Tourist Attraction</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Search:J W</t>
+  </si>
+  <si>
+    <t>SelectOption:Vittal Mallya Road</t>
+  </si>
+  <si>
+    <t>VerifyPhoneNumber:080-67189999</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Search:Rudra</t>
+  </si>
+  <si>
+    <t>SelectOption:Dr. Rudrappa Hospital</t>
+  </si>
+  <si>
+    <t>VerifyPhoneNumber:+(91)-9152385750</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Search:McDonalds bellandur</t>
+  </si>
+  <si>
+    <t>SelectOption:Bellandur</t>
+  </si>
+  <si>
+    <t>VerifySearchPageIsDisplayed:Search</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Search:CCD Nagawara</t>
+  </si>
+  <si>
+    <t>SelectOption:Nagawara</t>
+  </si>
+  <si>
+    <t>VerifyPhoneNumber:18001025093</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search:Taj Hotel Goa </t>
+  </si>
+  <si>
+    <t>SelectOption:122 Hotels in Goa</t>
+  </si>
+  <si>
+    <t>Taj Mahal Bannerghatta</t>
+  </si>
 </sst>
 </file>
 
@@ -835,15 +920,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -896,11 +987,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -941,6 +1047,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1888,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>140</v>
@@ -2138,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,4 +3146,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testResources/DataDrivenTestingTest.xlsx
+++ b/src/test/resources/testResources/DataDrivenTestingTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -3152,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
